--- a/01_基本設計書/20191231リリース/SC-M11_品種マスタ.xlsx
+++ b/01_基本設計書/20191231リリース/SC-M11_品種マスタ.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\マスタ\20191018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617C3E4-6F27-4DF8-884F-80BA496EC44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53070977-809E-4ACB-847E-5077A4234A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="510" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1307,12 +1307,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>必須チェック
-桁数チェック
-重複チェック</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>確認メッセージダイアログを表示する。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -1772,6 +1766,31 @@
     <t>データをテーブルに削除する。</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">必須チェック
+桁数チェック
+重複チェック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>半角英数字チェック</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>エイスウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2690,6 +2709,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2716,91 +2820,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2865,20 +2884,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2897,6 +2910,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4692,1770 +4711,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="137"/>
-      <c r="AW1" s="137"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="168"/>
+      <c r="AT1" s="168"/>
+      <c r="AU1" s="168"/>
+      <c r="AV1" s="168"/>
+      <c r="AW1" s="168"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="169"/>
+      <c r="AV2" s="169"/>
+      <c r="AW2" s="169"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139" t="s">
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140" t="s">
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="140" t="s">
+      <c r="K3" s="172"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="139" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139" t="s">
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139" t="s">
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="139" t="s">
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="139"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
+      <c r="AT3" s="170"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="139"/>
-      <c r="AH4" s="139"/>
-      <c r="AI4" s="139"/>
-      <c r="AJ4" s="139"/>
-      <c r="AK4" s="139"/>
-      <c r="AL4" s="139"/>
-      <c r="AM4" s="139"/>
-      <c r="AN4" s="139"/>
-      <c r="AO4" s="139"/>
-      <c r="AP4" s="139"/>
-      <c r="AQ4" s="139"/>
-      <c r="AR4" s="139"/>
-      <c r="AS4" s="139"/>
-      <c r="AT4" s="139"/>
-      <c r="AU4" s="139"/>
-      <c r="AV4" s="139"/>
-      <c r="AW4" s="139"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="170"/>
+      <c r="AA4" s="170"/>
+      <c r="AB4" s="170"/>
+      <c r="AC4" s="170"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="170"/>
+      <c r="AJ4" s="170"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="170"/>
+      <c r="AP4" s="170"/>
+      <c r="AQ4" s="170"/>
+      <c r="AR4" s="170"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="170"/>
+      <c r="AU4" s="170"/>
+      <c r="AV4" s="170"/>
+      <c r="AW4" s="170"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="147">
+      <c r="B5" s="162">
         <v>1</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="148">
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="143">
         <v>43700</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="149" t="s">
+      <c r="K5" s="145"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="146" t="s">
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="155" t="s">
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AJ5" s="155"/>
-      <c r="AK5" s="155"/>
-      <c r="AL5" s="155"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="146" t="s">
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="161"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="161"/>
+      <c r="AK5" s="161"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
+      <c r="AO5" s="150"/>
+      <c r="AP5" s="150"/>
+      <c r="AQ5" s="150"/>
+      <c r="AR5" s="150"/>
+      <c r="AS5" s="150"/>
+      <c r="AT5" s="150"/>
+      <c r="AU5" s="150"/>
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="155"/>
-      <c r="Y6" s="155"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="155"/>
-      <c r="AB6" s="155"/>
-      <c r="AC6" s="155"/>
-      <c r="AD6" s="155"/>
-      <c r="AE6" s="155"/>
-      <c r="AF6" s="155"/>
-      <c r="AG6" s="155"/>
-      <c r="AH6" s="155"/>
-      <c r="AI6" s="155"/>
-      <c r="AJ6" s="155"/>
-      <c r="AK6" s="155"/>
-      <c r="AL6" s="155"/>
-      <c r="AM6" s="155"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="161"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="161"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="161"/>
+      <c r="AH6" s="161"/>
+      <c r="AI6" s="161"/>
+      <c r="AJ6" s="161"/>
+      <c r="AK6" s="161"/>
+      <c r="AL6" s="161"/>
+      <c r="AM6" s="161"/>
+      <c r="AN6" s="150"/>
+      <c r="AO6" s="150"/>
+      <c r="AP6" s="150"/>
+      <c r="AQ6" s="150"/>
+      <c r="AR6" s="150"/>
+      <c r="AS6" s="150"/>
+      <c r="AT6" s="150"/>
+      <c r="AU6" s="150"/>
+      <c r="AV6" s="150"/>
+      <c r="AW6" s="150"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="155"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="155"/>
-      <c r="Z7" s="155"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="155"/>
-      <c r="AE7" s="155"/>
-      <c r="AF7" s="155"/>
-      <c r="AG7" s="155"/>
-      <c r="AH7" s="155"/>
-      <c r="AI7" s="155"/>
-      <c r="AJ7" s="155"/>
-      <c r="AK7" s="155"/>
-      <c r="AL7" s="155"/>
-      <c r="AM7" s="155"/>
-      <c r="AN7" s="146"/>
-      <c r="AO7" s="146"/>
-      <c r="AP7" s="146"/>
-      <c r="AQ7" s="146"/>
-      <c r="AR7" s="146"/>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="146"/>
-      <c r="AU7" s="146"/>
-      <c r="AV7" s="146"/>
-      <c r="AW7" s="146"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="161"/>
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="150"/>
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="150"/>
+      <c r="AQ7" s="150"/>
+      <c r="AR7" s="150"/>
+      <c r="AS7" s="150"/>
+      <c r="AT7" s="150"/>
+      <c r="AU7" s="150"/>
+      <c r="AV7" s="150"/>
+      <c r="AW7" s="150"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="155"/>
-      <c r="W8" s="155"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="155"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="155"/>
-      <c r="AD8" s="155"/>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="155"/>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="155"/>
-      <c r="AJ8" s="155"/>
-      <c r="AK8" s="155"/>
-      <c r="AL8" s="155"/>
-      <c r="AM8" s="155"/>
-      <c r="AN8" s="146"/>
-      <c r="AO8" s="146"/>
-      <c r="AP8" s="146"/>
-      <c r="AQ8" s="146"/>
-      <c r="AR8" s="146"/>
-      <c r="AS8" s="146"/>
-      <c r="AT8" s="146"/>
-      <c r="AU8" s="146"/>
-      <c r="AV8" s="146"/>
-      <c r="AW8" s="146"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="161"/>
+      <c r="AF8" s="161"/>
+      <c r="AG8" s="161"/>
+      <c r="AH8" s="161"/>
+      <c r="AI8" s="161"/>
+      <c r="AJ8" s="161"/>
+      <c r="AK8" s="161"/>
+      <c r="AL8" s="161"/>
+      <c r="AM8" s="161"/>
+      <c r="AN8" s="150"/>
+      <c r="AO8" s="150"/>
+      <c r="AP8" s="150"/>
+      <c r="AQ8" s="150"/>
+      <c r="AR8" s="150"/>
+      <c r="AS8" s="150"/>
+      <c r="AT8" s="150"/>
+      <c r="AU8" s="150"/>
+      <c r="AV8" s="150"/>
+      <c r="AW8" s="150"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
-      <c r="AF9" s="155"/>
-      <c r="AG9" s="155"/>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="155"/>
-      <c r="AJ9" s="155"/>
-      <c r="AK9" s="155"/>
-      <c r="AL9" s="155"/>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="146"/>
-      <c r="AO9" s="146"/>
-      <c r="AP9" s="146"/>
-      <c r="AQ9" s="146"/>
-      <c r="AR9" s="146"/>
-      <c r="AS9" s="146"/>
-      <c r="AT9" s="146"/>
-      <c r="AU9" s="146"/>
-      <c r="AV9" s="146"/>
-      <c r="AW9" s="146"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="161"/>
+      <c r="AB9" s="161"/>
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="161"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="161"/>
+      <c r="AI9" s="161"/>
+      <c r="AJ9" s="161"/>
+      <c r="AK9" s="161"/>
+      <c r="AL9" s="161"/>
+      <c r="AM9" s="161"/>
+      <c r="AN9" s="150"/>
+      <c r="AO9" s="150"/>
+      <c r="AP9" s="150"/>
+      <c r="AQ9" s="150"/>
+      <c r="AR9" s="150"/>
+      <c r="AS9" s="150"/>
+      <c r="AT9" s="150"/>
+      <c r="AU9" s="150"/>
+      <c r="AV9" s="150"/>
+      <c r="AW9" s="150"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="146"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="155"/>
-      <c r="AG10" s="155"/>
-      <c r="AH10" s="155"/>
-      <c r="AI10" s="155"/>
-      <c r="AJ10" s="155"/>
-      <c r="AK10" s="155"/>
-      <c r="AL10" s="155"/>
-      <c r="AM10" s="155"/>
-      <c r="AN10" s="146"/>
-      <c r="AO10" s="146"/>
-      <c r="AP10" s="146"/>
-      <c r="AQ10" s="146"/>
-      <c r="AR10" s="146"/>
-      <c r="AS10" s="146"/>
-      <c r="AT10" s="146"/>
-      <c r="AU10" s="146"/>
-      <c r="AV10" s="146"/>
-      <c r="AW10" s="146"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="161"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="161"/>
+      <c r="AF10" s="161"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="161"/>
+      <c r="AI10" s="161"/>
+      <c r="AJ10" s="161"/>
+      <c r="AK10" s="161"/>
+      <c r="AL10" s="161"/>
+      <c r="AM10" s="161"/>
+      <c r="AN10" s="150"/>
+      <c r="AO10" s="150"/>
+      <c r="AP10" s="150"/>
+      <c r="AQ10" s="150"/>
+      <c r="AR10" s="150"/>
+      <c r="AS10" s="150"/>
+      <c r="AT10" s="150"/>
+      <c r="AU10" s="150"/>
+      <c r="AV10" s="150"/>
+      <c r="AW10" s="150"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="168"/>
-      <c r="AE11" s="168"/>
-      <c r="AF11" s="168"/>
-      <c r="AG11" s="168"/>
-      <c r="AH11" s="168"/>
-      <c r="AI11" s="168"/>
-      <c r="AJ11" s="168"/>
-      <c r="AK11" s="168"/>
-      <c r="AL11" s="168"/>
-      <c r="AM11" s="169"/>
-      <c r="AN11" s="146"/>
-      <c r="AO11" s="146"/>
-      <c r="AP11" s="146"/>
-      <c r="AQ11" s="146"/>
-      <c r="AR11" s="146"/>
-      <c r="AS11" s="146"/>
-      <c r="AT11" s="146"/>
-      <c r="AU11" s="146"/>
-      <c r="AV11" s="146"/>
-      <c r="AW11" s="146"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="163"/>
+      <c r="AK11" s="163"/>
+      <c r="AL11" s="163"/>
+      <c r="AM11" s="164"/>
+      <c r="AN11" s="150"/>
+      <c r="AO11" s="150"/>
+      <c r="AP11" s="150"/>
+      <c r="AQ11" s="150"/>
+      <c r="AR11" s="150"/>
+      <c r="AS11" s="150"/>
+      <c r="AT11" s="150"/>
+      <c r="AU11" s="150"/>
+      <c r="AV11" s="150"/>
+      <c r="AW11" s="150"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="163"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="163"/>
-      <c r="AL12" s="163"/>
-      <c r="AM12" s="164"/>
-      <c r="AN12" s="165"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="166"/>
-      <c r="AQ12" s="166"/>
-      <c r="AR12" s="167"/>
-      <c r="AS12" s="165"/>
-      <c r="AT12" s="166"/>
-      <c r="AU12" s="166"/>
-      <c r="AV12" s="166"/>
-      <c r="AW12" s="167"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="152"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="152"/>
+      <c r="AM12" s="153"/>
+      <c r="AN12" s="137"/>
+      <c r="AO12" s="138"/>
+      <c r="AP12" s="138"/>
+      <c r="AQ12" s="138"/>
+      <c r="AR12" s="139"/>
+      <c r="AS12" s="137"/>
+      <c r="AT12" s="138"/>
+      <c r="AU12" s="138"/>
+      <c r="AV12" s="138"/>
+      <c r="AW12" s="139"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="163"/>
-      <c r="Z13" s="163"/>
-      <c r="AA13" s="163"/>
-      <c r="AB13" s="163"/>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="163"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="163"/>
-      <c r="AI13" s="163"/>
-      <c r="AJ13" s="163"/>
-      <c r="AK13" s="163"/>
-      <c r="AL13" s="163"/>
-      <c r="AM13" s="164"/>
-      <c r="AN13" s="165"/>
-      <c r="AO13" s="166"/>
-      <c r="AP13" s="166"/>
-      <c r="AQ13" s="166"/>
-      <c r="AR13" s="167"/>
-      <c r="AS13" s="165"/>
-      <c r="AT13" s="166"/>
-      <c r="AU13" s="166"/>
-      <c r="AV13" s="166"/>
-      <c r="AW13" s="167"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
+      <c r="AE13" s="152"/>
+      <c r="AF13" s="152"/>
+      <c r="AG13" s="152"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="152"/>
+      <c r="AJ13" s="152"/>
+      <c r="AK13" s="152"/>
+      <c r="AL13" s="152"/>
+      <c r="AM13" s="153"/>
+      <c r="AN13" s="137"/>
+      <c r="AO13" s="138"/>
+      <c r="AP13" s="138"/>
+      <c r="AQ13" s="138"/>
+      <c r="AR13" s="139"/>
+      <c r="AS13" s="137"/>
+      <c r="AT13" s="138"/>
+      <c r="AU13" s="138"/>
+      <c r="AV13" s="138"/>
+      <c r="AW13" s="139"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="155"/>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="155"/>
-      <c r="AI14" s="155"/>
-      <c r="AJ14" s="155"/>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="155"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="146"/>
-      <c r="AO14" s="146"/>
-      <c r="AP14" s="146"/>
-      <c r="AQ14" s="146"/>
-      <c r="AR14" s="146"/>
-      <c r="AS14" s="165"/>
-      <c r="AT14" s="166"/>
-      <c r="AU14" s="166"/>
-      <c r="AV14" s="166"/>
-      <c r="AW14" s="167"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="161"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="161"/>
+      <c r="AJ14" s="161"/>
+      <c r="AK14" s="161"/>
+      <c r="AL14" s="161"/>
+      <c r="AM14" s="161"/>
+      <c r="AN14" s="150"/>
+      <c r="AO14" s="150"/>
+      <c r="AP14" s="150"/>
+      <c r="AQ14" s="150"/>
+      <c r="AR14" s="150"/>
+      <c r="AS14" s="137"/>
+      <c r="AT14" s="138"/>
+      <c r="AU14" s="138"/>
+      <c r="AV14" s="138"/>
+      <c r="AW14" s="139"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="146"/>
-      <c r="T15" s="146"/>
-      <c r="U15" s="146"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="163"/>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="163"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="163"/>
-      <c r="AI15" s="163"/>
-      <c r="AJ15" s="163"/>
-      <c r="AK15" s="163"/>
-      <c r="AL15" s="163"/>
-      <c r="AM15" s="164"/>
-      <c r="AN15" s="165"/>
-      <c r="AO15" s="166"/>
-      <c r="AP15" s="166"/>
-      <c r="AQ15" s="166"/>
-      <c r="AR15" s="167"/>
-      <c r="AS15" s="165"/>
-      <c r="AT15" s="166"/>
-      <c r="AU15" s="166"/>
-      <c r="AV15" s="166"/>
-      <c r="AW15" s="167"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="152"/>
+      <c r="X15" s="152"/>
+      <c r="Y15" s="152"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="152"/>
+      <c r="AB15" s="152"/>
+      <c r="AC15" s="152"/>
+      <c r="AD15" s="152"/>
+      <c r="AE15" s="152"/>
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="152"/>
+      <c r="AH15" s="152"/>
+      <c r="AI15" s="152"/>
+      <c r="AJ15" s="152"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="152"/>
+      <c r="AM15" s="153"/>
+      <c r="AN15" s="137"/>
+      <c r="AO15" s="138"/>
+      <c r="AP15" s="138"/>
+      <c r="AQ15" s="138"/>
+      <c r="AR15" s="139"/>
+      <c r="AS15" s="137"/>
+      <c r="AT15" s="138"/>
+      <c r="AU15" s="138"/>
+      <c r="AV15" s="138"/>
+      <c r="AW15" s="139"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="146"/>
-      <c r="T16" s="146"/>
-      <c r="U16" s="146"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="163"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="163"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="163"/>
-      <c r="AL16" s="163"/>
-      <c r="AM16" s="164"/>
-      <c r="AN16" s="165"/>
-      <c r="AO16" s="166"/>
-      <c r="AP16" s="166"/>
-      <c r="AQ16" s="166"/>
-      <c r="AR16" s="167"/>
-      <c r="AS16" s="165"/>
-      <c r="AT16" s="166"/>
-      <c r="AU16" s="166"/>
-      <c r="AV16" s="166"/>
-      <c r="AW16" s="167"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="150"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="152"/>
+      <c r="AH16" s="152"/>
+      <c r="AI16" s="152"/>
+      <c r="AJ16" s="152"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="152"/>
+      <c r="AM16" s="153"/>
+      <c r="AN16" s="137"/>
+      <c r="AO16" s="138"/>
+      <c r="AP16" s="138"/>
+      <c r="AQ16" s="138"/>
+      <c r="AR16" s="139"/>
+      <c r="AS16" s="137"/>
+      <c r="AT16" s="138"/>
+      <c r="AU16" s="138"/>
+      <c r="AV16" s="138"/>
+      <c r="AW16" s="139"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="163"/>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="163"/>
-      <c r="AF17" s="163"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="163"/>
-      <c r="AJ17" s="163"/>
-      <c r="AK17" s="163"/>
-      <c r="AL17" s="163"/>
-      <c r="AM17" s="164"/>
-      <c r="AN17" s="165"/>
-      <c r="AO17" s="166"/>
-      <c r="AP17" s="166"/>
-      <c r="AQ17" s="166"/>
-      <c r="AR17" s="167"/>
-      <c r="AS17" s="165"/>
-      <c r="AT17" s="166"/>
-      <c r="AU17" s="166"/>
-      <c r="AV17" s="166"/>
-      <c r="AW17" s="167"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="158"/>
+      <c r="S17" s="159"/>
+      <c r="T17" s="159"/>
+      <c r="U17" s="159"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="152"/>
+      <c r="AD17" s="152"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="152"/>
+      <c r="AI17" s="152"/>
+      <c r="AJ17" s="152"/>
+      <c r="AK17" s="152"/>
+      <c r="AL17" s="152"/>
+      <c r="AM17" s="153"/>
+      <c r="AN17" s="137"/>
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="138"/>
+      <c r="AQ17" s="138"/>
+      <c r="AR17" s="139"/>
+      <c r="AS17" s="137"/>
+      <c r="AT17" s="138"/>
+      <c r="AU17" s="138"/>
+      <c r="AV17" s="138"/>
+      <c r="AW17" s="139"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="163"/>
-      <c r="AF18" s="163"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="163"/>
-      <c r="AJ18" s="163"/>
-      <c r="AK18" s="163"/>
-      <c r="AL18" s="163"/>
-      <c r="AM18" s="164"/>
-      <c r="AN18" s="165"/>
-      <c r="AO18" s="166"/>
-      <c r="AP18" s="166"/>
-      <c r="AQ18" s="166"/>
-      <c r="AR18" s="167"/>
-      <c r="AS18" s="165"/>
-      <c r="AT18" s="166"/>
-      <c r="AU18" s="166"/>
-      <c r="AV18" s="166"/>
-      <c r="AW18" s="167"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="150"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="152"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="152"/>
+      <c r="AI18" s="152"/>
+      <c r="AJ18" s="152"/>
+      <c r="AK18" s="152"/>
+      <c r="AL18" s="152"/>
+      <c r="AM18" s="153"/>
+      <c r="AN18" s="137"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="138"/>
+      <c r="AR18" s="139"/>
+      <c r="AS18" s="137"/>
+      <c r="AT18" s="138"/>
+      <c r="AU18" s="138"/>
+      <c r="AV18" s="138"/>
+      <c r="AW18" s="139"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="146"/>
-      <c r="T19" s="146"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
-      <c r="Y19" s="163"/>
-      <c r="Z19" s="163"/>
-      <c r="AA19" s="163"/>
-      <c r="AB19" s="163"/>
-      <c r="AC19" s="163"/>
-      <c r="AD19" s="163"/>
-      <c r="AE19" s="163"/>
-      <c r="AF19" s="163"/>
-      <c r="AG19" s="163"/>
-      <c r="AH19" s="163"/>
-      <c r="AI19" s="163"/>
-      <c r="AJ19" s="163"/>
-      <c r="AK19" s="163"/>
-      <c r="AL19" s="163"/>
-      <c r="AM19" s="164"/>
-      <c r="AN19" s="146"/>
-      <c r="AO19" s="146"/>
-      <c r="AP19" s="146"/>
-      <c r="AQ19" s="146"/>
-      <c r="AR19" s="146"/>
-      <c r="AS19" s="165"/>
-      <c r="AT19" s="166"/>
-      <c r="AU19" s="166"/>
-      <c r="AV19" s="166"/>
-      <c r="AW19" s="167"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="152"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="152"/>
+      <c r="AI19" s="152"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="152"/>
+      <c r="AL19" s="152"/>
+      <c r="AM19" s="153"/>
+      <c r="AN19" s="150"/>
+      <c r="AO19" s="150"/>
+      <c r="AP19" s="150"/>
+      <c r="AQ19" s="150"/>
+      <c r="AR19" s="150"/>
+      <c r="AS19" s="137"/>
+      <c r="AT19" s="138"/>
+      <c r="AU19" s="138"/>
+      <c r="AV19" s="138"/>
+      <c r="AW19" s="139"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="167"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="163"/>
-      <c r="Z20" s="163"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="163"/>
-      <c r="AE20" s="163"/>
-      <c r="AF20" s="163"/>
-      <c r="AG20" s="163"/>
-      <c r="AH20" s="163"/>
-      <c r="AI20" s="163"/>
-      <c r="AJ20" s="163"/>
-      <c r="AK20" s="163"/>
-      <c r="AL20" s="163"/>
-      <c r="AM20" s="164"/>
-      <c r="AN20" s="165"/>
-      <c r="AO20" s="166"/>
-      <c r="AP20" s="166"/>
-      <c r="AQ20" s="166"/>
-      <c r="AR20" s="167"/>
-      <c r="AS20" s="165"/>
-      <c r="AT20" s="166"/>
-      <c r="AU20" s="166"/>
-      <c r="AV20" s="166"/>
-      <c r="AW20" s="167"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="152"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="152"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="152"/>
+      <c r="AI20" s="152"/>
+      <c r="AJ20" s="152"/>
+      <c r="AK20" s="152"/>
+      <c r="AL20" s="152"/>
+      <c r="AM20" s="153"/>
+      <c r="AN20" s="137"/>
+      <c r="AO20" s="138"/>
+      <c r="AP20" s="138"/>
+      <c r="AQ20" s="138"/>
+      <c r="AR20" s="139"/>
+      <c r="AS20" s="137"/>
+      <c r="AT20" s="138"/>
+      <c r="AU20" s="138"/>
+      <c r="AV20" s="138"/>
+      <c r="AW20" s="139"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="146"/>
-      <c r="T21" s="146"/>
-      <c r="U21" s="146"/>
-      <c r="V21" s="162"/>
-      <c r="W21" s="163"/>
-      <c r="X21" s="163"/>
-      <c r="Y21" s="163"/>
-      <c r="Z21" s="163"/>
-      <c r="AA21" s="163"/>
-      <c r="AB21" s="163"/>
-      <c r="AC21" s="163"/>
-      <c r="AD21" s="163"/>
-      <c r="AE21" s="163"/>
-      <c r="AF21" s="163"/>
-      <c r="AG21" s="163"/>
-      <c r="AH21" s="163"/>
-      <c r="AI21" s="163"/>
-      <c r="AJ21" s="163"/>
-      <c r="AK21" s="163"/>
-      <c r="AL21" s="163"/>
-      <c r="AM21" s="164"/>
-      <c r="AN21" s="165"/>
-      <c r="AO21" s="166"/>
-      <c r="AP21" s="166"/>
-      <c r="AQ21" s="166"/>
-      <c r="AR21" s="167"/>
-      <c r="AS21" s="165"/>
-      <c r="AT21" s="166"/>
-      <c r="AU21" s="166"/>
-      <c r="AV21" s="166"/>
-      <c r="AW21" s="167"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="152"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="152"/>
+      <c r="Z21" s="152"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="152"/>
+      <c r="AC21" s="152"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="152"/>
+      <c r="AF21" s="152"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="152"/>
+      <c r="AI21" s="152"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="152"/>
+      <c r="AL21" s="152"/>
+      <c r="AM21" s="153"/>
+      <c r="AN21" s="137"/>
+      <c r="AO21" s="138"/>
+      <c r="AP21" s="138"/>
+      <c r="AQ21" s="138"/>
+      <c r="AR21" s="139"/>
+      <c r="AS21" s="137"/>
+      <c r="AT21" s="138"/>
+      <c r="AU21" s="138"/>
+      <c r="AV21" s="138"/>
+      <c r="AW21" s="139"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="146"/>
-      <c r="T22" s="146"/>
-      <c r="U22" s="146"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="163"/>
-      <c r="X22" s="163"/>
-      <c r="Y22" s="163"/>
-      <c r="Z22" s="163"/>
-      <c r="AA22" s="163"/>
-      <c r="AB22" s="163"/>
-      <c r="AC22" s="163"/>
-      <c r="AD22" s="163"/>
-      <c r="AE22" s="163"/>
-      <c r="AF22" s="163"/>
-      <c r="AG22" s="163"/>
-      <c r="AH22" s="163"/>
-      <c r="AI22" s="163"/>
-      <c r="AJ22" s="163"/>
-      <c r="AK22" s="163"/>
-      <c r="AL22" s="163"/>
-      <c r="AM22" s="164"/>
-      <c r="AN22" s="165"/>
-      <c r="AO22" s="166"/>
-      <c r="AP22" s="166"/>
-      <c r="AQ22" s="166"/>
-      <c r="AR22" s="167"/>
-      <c r="AS22" s="165"/>
-      <c r="AT22" s="166"/>
-      <c r="AU22" s="166"/>
-      <c r="AV22" s="166"/>
-      <c r="AW22" s="167"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="152"/>
+      <c r="X22" s="152"/>
+      <c r="Y22" s="152"/>
+      <c r="Z22" s="152"/>
+      <c r="AA22" s="152"/>
+      <c r="AB22" s="152"/>
+      <c r="AC22" s="152"/>
+      <c r="AD22" s="152"/>
+      <c r="AE22" s="152"/>
+      <c r="AF22" s="152"/>
+      <c r="AG22" s="152"/>
+      <c r="AH22" s="152"/>
+      <c r="AI22" s="152"/>
+      <c r="AJ22" s="152"/>
+      <c r="AK22" s="152"/>
+      <c r="AL22" s="152"/>
+      <c r="AM22" s="153"/>
+      <c r="AN22" s="137"/>
+      <c r="AO22" s="138"/>
+      <c r="AP22" s="138"/>
+      <c r="AQ22" s="138"/>
+      <c r="AR22" s="139"/>
+      <c r="AS22" s="137"/>
+      <c r="AT22" s="138"/>
+      <c r="AU22" s="138"/>
+      <c r="AV22" s="138"/>
+      <c r="AW22" s="139"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="146"/>
-      <c r="T23" s="146"/>
-      <c r="U23" s="146"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="163"/>
-      <c r="Z23" s="163"/>
-      <c r="AA23" s="163"/>
-      <c r="AB23" s="163"/>
-      <c r="AC23" s="163"/>
-      <c r="AD23" s="163"/>
-      <c r="AE23" s="163"/>
-      <c r="AF23" s="163"/>
-      <c r="AG23" s="163"/>
-      <c r="AH23" s="163"/>
-      <c r="AI23" s="163"/>
-      <c r="AJ23" s="163"/>
-      <c r="AK23" s="163"/>
-      <c r="AL23" s="163"/>
-      <c r="AM23" s="164"/>
-      <c r="AN23" s="165"/>
-      <c r="AO23" s="166"/>
-      <c r="AP23" s="166"/>
-      <c r="AQ23" s="166"/>
-      <c r="AR23" s="167"/>
-      <c r="AS23" s="165"/>
-      <c r="AT23" s="166"/>
-      <c r="AU23" s="166"/>
-      <c r="AV23" s="166"/>
-      <c r="AW23" s="167"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
+      <c r="Y23" s="152"/>
+      <c r="Z23" s="152"/>
+      <c r="AA23" s="152"/>
+      <c r="AB23" s="152"/>
+      <c r="AC23" s="152"/>
+      <c r="AD23" s="152"/>
+      <c r="AE23" s="152"/>
+      <c r="AF23" s="152"/>
+      <c r="AG23" s="152"/>
+      <c r="AH23" s="152"/>
+      <c r="AI23" s="152"/>
+      <c r="AJ23" s="152"/>
+      <c r="AK23" s="152"/>
+      <c r="AL23" s="152"/>
+      <c r="AM23" s="153"/>
+      <c r="AN23" s="137"/>
+      <c r="AO23" s="138"/>
+      <c r="AP23" s="138"/>
+      <c r="AQ23" s="138"/>
+      <c r="AR23" s="139"/>
+      <c r="AS23" s="137"/>
+      <c r="AT23" s="138"/>
+      <c r="AU23" s="138"/>
+      <c r="AV23" s="138"/>
+      <c r="AW23" s="139"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="146"/>
-      <c r="T24" s="146"/>
-      <c r="U24" s="146"/>
-      <c r="V24" s="162"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
-      <c r="AB24" s="163"/>
-      <c r="AC24" s="163"/>
-      <c r="AD24" s="163"/>
-      <c r="AE24" s="163"/>
-      <c r="AF24" s="163"/>
-      <c r="AG24" s="163"/>
-      <c r="AH24" s="163"/>
-      <c r="AI24" s="163"/>
-      <c r="AJ24" s="163"/>
-      <c r="AK24" s="163"/>
-      <c r="AL24" s="163"/>
-      <c r="AM24" s="164"/>
-      <c r="AN24" s="165"/>
-      <c r="AO24" s="166"/>
-      <c r="AP24" s="166"/>
-      <c r="AQ24" s="166"/>
-      <c r="AR24" s="167"/>
-      <c r="AS24" s="165"/>
-      <c r="AT24" s="166"/>
-      <c r="AU24" s="166"/>
-      <c r="AV24" s="166"/>
-      <c r="AW24" s="167"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="150"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="152"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="152"/>
+      <c r="AF24" s="152"/>
+      <c r="AG24" s="152"/>
+      <c r="AH24" s="152"/>
+      <c r="AI24" s="152"/>
+      <c r="AJ24" s="152"/>
+      <c r="AK24" s="152"/>
+      <c r="AL24" s="152"/>
+      <c r="AM24" s="153"/>
+      <c r="AN24" s="137"/>
+      <c r="AO24" s="138"/>
+      <c r="AP24" s="138"/>
+      <c r="AQ24" s="138"/>
+      <c r="AR24" s="139"/>
+      <c r="AS24" s="137"/>
+      <c r="AT24" s="138"/>
+      <c r="AU24" s="138"/>
+      <c r="AV24" s="138"/>
+      <c r="AW24" s="139"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="146"/>
-      <c r="T25" s="146"/>
-      <c r="U25" s="146"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="163"/>
-      <c r="AA25" s="163"/>
-      <c r="AB25" s="163"/>
-      <c r="AC25" s="163"/>
-      <c r="AD25" s="163"/>
-      <c r="AE25" s="163"/>
-      <c r="AF25" s="163"/>
-      <c r="AG25" s="163"/>
-      <c r="AH25" s="163"/>
-      <c r="AI25" s="163"/>
-      <c r="AJ25" s="163"/>
-      <c r="AK25" s="163"/>
-      <c r="AL25" s="163"/>
-      <c r="AM25" s="164"/>
-      <c r="AN25" s="165"/>
-      <c r="AO25" s="166"/>
-      <c r="AP25" s="166"/>
-      <c r="AQ25" s="166"/>
-      <c r="AR25" s="167"/>
-      <c r="AS25" s="165"/>
-      <c r="AT25" s="166"/>
-      <c r="AU25" s="166"/>
-      <c r="AV25" s="166"/>
-      <c r="AW25" s="167"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152"/>
+      <c r="Z25" s="152"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="152"/>
+      <c r="AC25" s="152"/>
+      <c r="AD25" s="152"/>
+      <c r="AE25" s="152"/>
+      <c r="AF25" s="152"/>
+      <c r="AG25" s="152"/>
+      <c r="AH25" s="152"/>
+      <c r="AI25" s="152"/>
+      <c r="AJ25" s="152"/>
+      <c r="AK25" s="152"/>
+      <c r="AL25" s="152"/>
+      <c r="AM25" s="153"/>
+      <c r="AN25" s="137"/>
+      <c r="AO25" s="138"/>
+      <c r="AP25" s="138"/>
+      <c r="AQ25" s="138"/>
+      <c r="AR25" s="139"/>
+      <c r="AS25" s="137"/>
+      <c r="AT25" s="138"/>
+      <c r="AU25" s="138"/>
+      <c r="AV25" s="138"/>
+      <c r="AW25" s="139"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
-      <c r="U26" s="146"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="163"/>
-      <c r="AA26" s="163"/>
-      <c r="AB26" s="163"/>
-      <c r="AC26" s="163"/>
-      <c r="AD26" s="163"/>
-      <c r="AE26" s="163"/>
-      <c r="AF26" s="163"/>
-      <c r="AG26" s="163"/>
-      <c r="AH26" s="163"/>
-      <c r="AI26" s="163"/>
-      <c r="AJ26" s="163"/>
-      <c r="AK26" s="163"/>
-      <c r="AL26" s="163"/>
-      <c r="AM26" s="164"/>
-      <c r="AN26" s="165"/>
-      <c r="AO26" s="166"/>
-      <c r="AP26" s="166"/>
-      <c r="AQ26" s="166"/>
-      <c r="AR26" s="167"/>
-      <c r="AS26" s="165"/>
-      <c r="AT26" s="166"/>
-      <c r="AU26" s="166"/>
-      <c r="AV26" s="166"/>
-      <c r="AW26" s="167"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="152"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="152"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="152"/>
+      <c r="AL26" s="152"/>
+      <c r="AM26" s="153"/>
+      <c r="AN26" s="137"/>
+      <c r="AO26" s="138"/>
+      <c r="AP26" s="138"/>
+      <c r="AQ26" s="138"/>
+      <c r="AR26" s="139"/>
+      <c r="AS26" s="137"/>
+      <c r="AT26" s="138"/>
+      <c r="AU26" s="138"/>
+      <c r="AV26" s="138"/>
+      <c r="AW26" s="139"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="146"/>
-      <c r="U27" s="146"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="163"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="163"/>
-      <c r="AE27" s="163"/>
-      <c r="AF27" s="163"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="163"/>
-      <c r="AJ27" s="163"/>
-      <c r="AK27" s="163"/>
-      <c r="AL27" s="163"/>
-      <c r="AM27" s="164"/>
-      <c r="AN27" s="165"/>
-      <c r="AO27" s="166"/>
-      <c r="AP27" s="166"/>
-      <c r="AQ27" s="166"/>
-      <c r="AR27" s="167"/>
-      <c r="AS27" s="165"/>
-      <c r="AT27" s="166"/>
-      <c r="AU27" s="166"/>
-      <c r="AV27" s="166"/>
-      <c r="AW27" s="167"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="152"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="152"/>
+      <c r="AC27" s="152"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="152"/>
+      <c r="AF27" s="152"/>
+      <c r="AG27" s="152"/>
+      <c r="AH27" s="152"/>
+      <c r="AI27" s="152"/>
+      <c r="AJ27" s="152"/>
+      <c r="AK27" s="152"/>
+      <c r="AL27" s="152"/>
+      <c r="AM27" s="153"/>
+      <c r="AN27" s="137"/>
+      <c r="AO27" s="138"/>
+      <c r="AP27" s="138"/>
+      <c r="AQ27" s="138"/>
+      <c r="AR27" s="139"/>
+      <c r="AS27" s="137"/>
+      <c r="AT27" s="138"/>
+      <c r="AU27" s="138"/>
+      <c r="AV27" s="138"/>
+      <c r="AW27" s="139"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="161"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
-      <c r="AB28" s="163"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="163"/>
-      <c r="AE28" s="163"/>
-      <c r="AF28" s="163"/>
-      <c r="AG28" s="163"/>
-      <c r="AH28" s="163"/>
-      <c r="AI28" s="163"/>
-      <c r="AJ28" s="163"/>
-      <c r="AK28" s="163"/>
-      <c r="AL28" s="163"/>
-      <c r="AM28" s="164"/>
-      <c r="AN28" s="165"/>
-      <c r="AO28" s="166"/>
-      <c r="AP28" s="166"/>
-      <c r="AQ28" s="166"/>
-      <c r="AR28" s="167"/>
-      <c r="AS28" s="165"/>
-      <c r="AT28" s="166"/>
-      <c r="AU28" s="166"/>
-      <c r="AV28" s="166"/>
-      <c r="AW28" s="167"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="152"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="152"/>
+      <c r="Z28" s="152"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="152"/>
+      <c r="AC28" s="152"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="152"/>
+      <c r="AF28" s="152"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="152"/>
+      <c r="AI28" s="152"/>
+      <c r="AJ28" s="152"/>
+      <c r="AK28" s="152"/>
+      <c r="AL28" s="152"/>
+      <c r="AM28" s="153"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="139"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="139"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="161"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="163"/>
-      <c r="X29" s="163"/>
-      <c r="Y29" s="163"/>
-      <c r="Z29" s="163"/>
-      <c r="AA29" s="163"/>
-      <c r="AB29" s="163"/>
-      <c r="AC29" s="163"/>
-      <c r="AD29" s="163"/>
-      <c r="AE29" s="163"/>
-      <c r="AF29" s="163"/>
-      <c r="AG29" s="163"/>
-      <c r="AH29" s="163"/>
-      <c r="AI29" s="163"/>
-      <c r="AJ29" s="163"/>
-      <c r="AK29" s="163"/>
-      <c r="AL29" s="163"/>
-      <c r="AM29" s="164"/>
-      <c r="AN29" s="165"/>
-      <c r="AO29" s="166"/>
-      <c r="AP29" s="166"/>
-      <c r="AQ29" s="166"/>
-      <c r="AR29" s="167"/>
-      <c r="AS29" s="165"/>
-      <c r="AT29" s="166"/>
-      <c r="AU29" s="166"/>
-      <c r="AV29" s="166"/>
-      <c r="AW29" s="167"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="150"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="152"/>
+      <c r="X29" s="152"/>
+      <c r="Y29" s="152"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="152"/>
+      <c r="AC29" s="152"/>
+      <c r="AD29" s="152"/>
+      <c r="AE29" s="152"/>
+      <c r="AF29" s="152"/>
+      <c r="AG29" s="152"/>
+      <c r="AH29" s="152"/>
+      <c r="AI29" s="152"/>
+      <c r="AJ29" s="152"/>
+      <c r="AK29" s="152"/>
+      <c r="AL29" s="152"/>
+      <c r="AM29" s="153"/>
+      <c r="AN29" s="137"/>
+      <c r="AO29" s="138"/>
+      <c r="AP29" s="138"/>
+      <c r="AQ29" s="138"/>
+      <c r="AR29" s="139"/>
+      <c r="AS29" s="137"/>
+      <c r="AT29" s="138"/>
+      <c r="AU29" s="138"/>
+      <c r="AV29" s="138"/>
+      <c r="AW29" s="139"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="161"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="163"/>
-      <c r="Z30" s="163"/>
-      <c r="AA30" s="163"/>
-      <c r="AB30" s="163"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="163"/>
-      <c r="AE30" s="163"/>
-      <c r="AF30" s="163"/>
-      <c r="AG30" s="163"/>
-      <c r="AH30" s="163"/>
-      <c r="AI30" s="163"/>
-      <c r="AJ30" s="163"/>
-      <c r="AK30" s="163"/>
-      <c r="AL30" s="163"/>
-      <c r="AM30" s="164"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="166"/>
-      <c r="AP30" s="166"/>
-      <c r="AQ30" s="166"/>
-      <c r="AR30" s="167"/>
-      <c r="AS30" s="165"/>
-      <c r="AT30" s="166"/>
-      <c r="AU30" s="166"/>
-      <c r="AV30" s="166"/>
-      <c r="AW30" s="167"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="150"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="150"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="152"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="152"/>
+      <c r="AF30" s="152"/>
+      <c r="AG30" s="152"/>
+      <c r="AH30" s="152"/>
+      <c r="AI30" s="152"/>
+      <c r="AJ30" s="152"/>
+      <c r="AK30" s="152"/>
+      <c r="AL30" s="152"/>
+      <c r="AM30" s="153"/>
+      <c r="AN30" s="137"/>
+      <c r="AO30" s="138"/>
+      <c r="AP30" s="138"/>
+      <c r="AQ30" s="138"/>
+      <c r="AR30" s="139"/>
+      <c r="AS30" s="137"/>
+      <c r="AT30" s="138"/>
+      <c r="AU30" s="138"/>
+      <c r="AV30" s="138"/>
+      <c r="AW30" s="139"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="163"/>
-      <c r="Z31" s="163"/>
-      <c r="AA31" s="163"/>
-      <c r="AB31" s="163"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="163"/>
-      <c r="AE31" s="163"/>
-      <c r="AF31" s="163"/>
-      <c r="AG31" s="163"/>
-      <c r="AH31" s="163"/>
-      <c r="AI31" s="163"/>
-      <c r="AJ31" s="163"/>
-      <c r="AK31" s="163"/>
-      <c r="AL31" s="163"/>
-      <c r="AM31" s="164"/>
-      <c r="AN31" s="165"/>
-      <c r="AO31" s="166"/>
-      <c r="AP31" s="166"/>
-      <c r="AQ31" s="166"/>
-      <c r="AR31" s="167"/>
-      <c r="AS31" s="165"/>
-      <c r="AT31" s="166"/>
-      <c r="AU31" s="166"/>
-      <c r="AV31" s="166"/>
-      <c r="AW31" s="167"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="152"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="152"/>
+      <c r="Z31" s="152"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="152"/>
+      <c r="AC31" s="152"/>
+      <c r="AD31" s="152"/>
+      <c r="AE31" s="152"/>
+      <c r="AF31" s="152"/>
+      <c r="AG31" s="152"/>
+      <c r="AH31" s="152"/>
+      <c r="AI31" s="152"/>
+      <c r="AJ31" s="152"/>
+      <c r="AK31" s="152"/>
+      <c r="AL31" s="152"/>
+      <c r="AM31" s="153"/>
+      <c r="AN31" s="137"/>
+      <c r="AO31" s="138"/>
+      <c r="AP31" s="138"/>
+      <c r="AQ31" s="138"/>
+      <c r="AR31" s="139"/>
+      <c r="AS31" s="137"/>
+      <c r="AT31" s="138"/>
+      <c r="AU31" s="138"/>
+      <c r="AV31" s="138"/>
+      <c r="AW31" s="139"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="163"/>
-      <c r="AB32" s="163"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="163"/>
-      <c r="AE32" s="163"/>
-      <c r="AF32" s="163"/>
-      <c r="AG32" s="163"/>
-      <c r="AH32" s="163"/>
-      <c r="AI32" s="163"/>
-      <c r="AJ32" s="163"/>
-      <c r="AK32" s="163"/>
-      <c r="AL32" s="163"/>
-      <c r="AM32" s="164"/>
-      <c r="AN32" s="165"/>
-      <c r="AO32" s="166"/>
-      <c r="AP32" s="166"/>
-      <c r="AQ32" s="166"/>
-      <c r="AR32" s="167"/>
-      <c r="AS32" s="165"/>
-      <c r="AT32" s="166"/>
-      <c r="AU32" s="166"/>
-      <c r="AV32" s="166"/>
-      <c r="AW32" s="167"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="150"/>
+      <c r="T32" s="150"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="151"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="152"/>
+      <c r="AC32" s="152"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="152"/>
+      <c r="AF32" s="152"/>
+      <c r="AG32" s="152"/>
+      <c r="AH32" s="152"/>
+      <c r="AI32" s="152"/>
+      <c r="AJ32" s="152"/>
+      <c r="AK32" s="152"/>
+      <c r="AL32" s="152"/>
+      <c r="AM32" s="153"/>
+      <c r="AN32" s="137"/>
+      <c r="AO32" s="138"/>
+      <c r="AP32" s="138"/>
+      <c r="AQ32" s="138"/>
+      <c r="AR32" s="139"/>
+      <c r="AS32" s="137"/>
+      <c r="AT32" s="138"/>
+      <c r="AU32" s="138"/>
+      <c r="AV32" s="138"/>
+      <c r="AW32" s="139"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="163"/>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="163"/>
-      <c r="AB33" s="163"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="163"/>
-      <c r="AE33" s="163"/>
-      <c r="AF33" s="163"/>
-      <c r="AG33" s="163"/>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="163"/>
-      <c r="AJ33" s="163"/>
-      <c r="AK33" s="163"/>
-      <c r="AL33" s="163"/>
-      <c r="AM33" s="164"/>
-      <c r="AN33" s="165"/>
-      <c r="AO33" s="166"/>
-      <c r="AP33" s="166"/>
-      <c r="AQ33" s="166"/>
-      <c r="AR33" s="167"/>
-      <c r="AS33" s="165"/>
-      <c r="AT33" s="166"/>
-      <c r="AU33" s="166"/>
-      <c r="AV33" s="166"/>
-      <c r="AW33" s="167"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="150"/>
+      <c r="U33" s="150"/>
+      <c r="V33" s="151"/>
+      <c r="W33" s="152"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="152"/>
+      <c r="AC33" s="152"/>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="152"/>
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="152"/>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="152"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="153"/>
+      <c r="AN33" s="137"/>
+      <c r="AO33" s="138"/>
+      <c r="AP33" s="138"/>
+      <c r="AQ33" s="138"/>
+      <c r="AR33" s="139"/>
+      <c r="AS33" s="137"/>
+      <c r="AT33" s="138"/>
+      <c r="AU33" s="138"/>
+      <c r="AV33" s="138"/>
+      <c r="AW33" s="139"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="156"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="176"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="146"/>
-      <c r="V34" s="162"/>
-      <c r="W34" s="163"/>
-      <c r="X34" s="163"/>
-      <c r="Y34" s="163"/>
-      <c r="Z34" s="163"/>
-      <c r="AA34" s="163"/>
-      <c r="AB34" s="163"/>
-      <c r="AC34" s="163"/>
-      <c r="AD34" s="163"/>
-      <c r="AE34" s="163"/>
-      <c r="AF34" s="163"/>
-      <c r="AG34" s="163"/>
-      <c r="AH34" s="163"/>
-      <c r="AI34" s="163"/>
-      <c r="AJ34" s="163"/>
-      <c r="AK34" s="163"/>
-      <c r="AL34" s="163"/>
-      <c r="AM34" s="164"/>
-      <c r="AN34" s="165"/>
-      <c r="AO34" s="166"/>
-      <c r="AP34" s="166"/>
-      <c r="AQ34" s="166"/>
-      <c r="AR34" s="167"/>
-      <c r="AS34" s="165"/>
-      <c r="AT34" s="166"/>
-      <c r="AU34" s="166"/>
-      <c r="AV34" s="166"/>
-      <c r="AW34" s="167"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="148"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="150"/>
+      <c r="T34" s="150"/>
+      <c r="U34" s="150"/>
+      <c r="V34" s="151"/>
+      <c r="W34" s="152"/>
+      <c r="X34" s="152"/>
+      <c r="Y34" s="152"/>
+      <c r="Z34" s="152"/>
+      <c r="AA34" s="152"/>
+      <c r="AB34" s="152"/>
+      <c r="AC34" s="152"/>
+      <c r="AD34" s="152"/>
+      <c r="AE34" s="152"/>
+      <c r="AF34" s="152"/>
+      <c r="AG34" s="152"/>
+      <c r="AH34" s="152"/>
+      <c r="AI34" s="152"/>
+      <c r="AJ34" s="152"/>
+      <c r="AK34" s="152"/>
+      <c r="AL34" s="152"/>
+      <c r="AM34" s="153"/>
+      <c r="AN34" s="137"/>
+      <c r="AO34" s="138"/>
+      <c r="AP34" s="138"/>
+      <c r="AQ34" s="138"/>
+      <c r="AR34" s="139"/>
+      <c r="AS34" s="137"/>
+      <c r="AT34" s="138"/>
+      <c r="AU34" s="138"/>
+      <c r="AV34" s="138"/>
+      <c r="AW34" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6472,239 +6724,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6836,7 +6855,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S2" s="117"/>
       <c r="T2" s="117"/>
@@ -8724,7 +8743,7 @@
       </c>
       <c r="C51" s="188"/>
       <c r="D51" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="88"/>
       <c r="F51" s="88"/>
@@ -9308,37 +9327,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="198" t="s">
+      <c r="I6" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="198" t="s">
+      <c r="J6" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="170" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -9346,24 +9365,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="198" t="s">
+      <c r="Q6" s="200" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
       <c r="N7" s="43" t="s">
         <v>85</v>
       </c>
@@ -9373,7 +9392,7 @@
       <c r="P7" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="198"/>
+      <c r="Q7" s="200"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -9432,13 +9451,13 @@
         <v>65</v>
       </c>
       <c r="E9" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>35</v>
@@ -9456,17 +9475,17 @@
         <v>35</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -9479,13 +9498,13 @@
         <v>66</v>
       </c>
       <c r="E10" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>35</v>
@@ -9503,17 +9522,17 @@
         <v>35</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -9526,10 +9545,10 @@
         <v>67</v>
       </c>
       <c r="E11" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>125</v>
@@ -9560,7 +9579,7 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -9570,7 +9589,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>55</v>
@@ -9617,7 +9636,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -9670,37 +9689,37 @@
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="139" t="s">
+      <c r="H16" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="199" t="s">
+      <c r="I16" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="198" t="s">
+      <c r="J16" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="139" t="s">
+      <c r="K16" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="139" t="s">
+      <c r="L16" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="139" t="s">
+      <c r="M16" s="170" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="72" t="s">
@@ -9708,24 +9727,24 @@
       </c>
       <c r="O16" s="72"/>
       <c r="P16" s="72"/>
-      <c r="Q16" s="199" t="s">
+      <c r="Q16" s="198" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
       <c r="N17" s="43" t="s">
         <v>85</v>
       </c>
@@ -9735,7 +9754,7 @@
       <c r="P17" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="200"/>
+      <c r="Q17" s="199"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -9744,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>127</v>
@@ -9797,37 +9816,37 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="64"/>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="139" t="s">
+      <c r="E21" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="139" t="s">
+      <c r="H21" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="198" t="s">
+      <c r="I21" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="198" t="s">
+      <c r="J21" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="139" t="s">
+      <c r="K21" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="139" t="s">
+      <c r="L21" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="139" t="s">
+      <c r="M21" s="170" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="72" t="s">
@@ -9835,24 +9854,24 @@
       </c>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
-      <c r="Q21" s="198" t="s">
+      <c r="Q21" s="200" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
       <c r="N22" s="43" t="s">
         <v>85</v>
       </c>
@@ -9862,7 +9881,7 @@
       <c r="P22" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" s="198"/>
+      <c r="Q22" s="200"/>
     </row>
     <row r="23" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
@@ -9944,13 +9963,13 @@
         <v>69</v>
       </c>
       <c r="E25" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>35</v>
@@ -10026,7 +10045,7 @@
         <v>35</v>
       </c>
       <c r="P26" s="109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>35</v>
@@ -10039,7 +10058,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>130</v>
@@ -10088,13 +10107,13 @@
         <v>5</v>
       </c>
       <c r="D28" s="125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E28" s="126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F28" s="125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G28" s="127" t="s">
         <v>53</v>
@@ -10109,13 +10128,13 @@
         <v>35</v>
       </c>
       <c r="K28" s="125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L28" s="125" t="s">
         <v>35</v>
       </c>
       <c r="M28" s="128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N28" s="125" t="s">
         <v>34</v>
@@ -10124,7 +10143,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="125" t="s">
         <v>35</v>
@@ -10136,13 +10155,13 @@
         <v>6</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>53</v>
@@ -10172,7 +10191,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -10206,37 +10225,37 @@
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="64"/>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="139" t="s">
+      <c r="D32" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="139" t="s">
+      <c r="E32" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="139" t="s">
+      <c r="F32" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="139" t="s">
+      <c r="G32" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="139" t="s">
+      <c r="H32" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="198" t="s">
+      <c r="I32" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="198" t="s">
+      <c r="J32" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="139" t="s">
+      <c r="K32" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="139" t="s">
+      <c r="L32" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="139" t="s">
+      <c r="M32" s="170" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="72" t="s">
@@ -10244,24 +10263,24 @@
       </c>
       <c r="O32" s="72"/>
       <c r="P32" s="72"/>
-      <c r="Q32" s="198" t="s">
+      <c r="Q32" s="200" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="64"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
       <c r="N33" s="95" t="s">
         <v>85</v>
       </c>
@@ -10271,9 +10290,9 @@
       <c r="P33" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="198"/>
-    </row>
-    <row r="34" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="Q33" s="200"/>
+    </row>
+    <row r="34" spans="1:17" ht="57" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="64"/>
       <c r="C34" s="7">
@@ -10307,7 +10326,7 @@
         <v>35</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>34</v>
@@ -10378,13 +10397,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="125" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="126" t="s">
-        <v>216</v>
-      </c>
       <c r="F36" s="125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>133</v>
@@ -10399,13 +10418,13 @@
         <v>35</v>
       </c>
       <c r="K36" s="125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L36" s="125" t="s">
         <v>35</v>
       </c>
       <c r="M36" s="128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N36" s="7" t="s">
         <v>34</v>
@@ -10426,13 +10445,13 @@
         <v>4</v>
       </c>
       <c r="D37" s="125" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>133</v>
@@ -10453,7 +10472,7 @@
         <v>35</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>34</v>
@@ -10462,7 +10481,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>35</v>
@@ -10495,6 +10514,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I21:I22"/>
@@ -10511,38 +10562,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11926,20 +11945,20 @@
         <v>3</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
       <c r="G28" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="23"/>
       <c r="L28" s="131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M28" s="132"/>
       <c r="N28" s="132"/>
@@ -11987,7 +12006,7 @@
       </c>
       <c r="K29" s="77"/>
       <c r="L29" s="132" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M29" s="132"/>
       <c r="N29" s="132"/>
@@ -12035,7 +12054,7 @@
       <c r="G31" s="76"/>
       <c r="K31" s="77"/>
       <c r="L31" s="132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M31" s="132"/>
       <c r="N31" s="132"/>
@@ -12060,7 +12079,7 @@
       <c r="G32" s="76"/>
       <c r="K32" s="77"/>
       <c r="L32" s="132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M32" s="132"/>
       <c r="N32" s="132"/>
@@ -12108,7 +12127,7 @@
       <c r="G34" s="76"/>
       <c r="K34" s="77"/>
       <c r="L34" s="132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M34" s="132"/>
       <c r="N34" s="132"/>
@@ -12133,7 +12152,7 @@
       <c r="G35" s="76"/>
       <c r="K35" s="77"/>
       <c r="L35" s="132" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M35" s="132"/>
       <c r="N35" s="132"/>
@@ -12181,7 +12200,7 @@
       <c r="G37" s="76"/>
       <c r="K37" s="77"/>
       <c r="L37" s="132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M37" s="132"/>
       <c r="N37" s="132"/>
@@ -12218,20 +12237,20 @@
         <v>4</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="23"/>
       <c r="G39" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="23"/>
       <c r="L39" s="131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -12279,7 +12298,7 @@
       </c>
       <c r="K40" s="77"/>
       <c r="L40" s="133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AV40" s="77"/>
     </row>
@@ -12299,7 +12318,7 @@
       <c r="G42" s="76"/>
       <c r="K42" s="77"/>
       <c r="L42" s="133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AV42" s="77"/>
     </row>
@@ -12310,7 +12329,7 @@
       <c r="G43" s="76"/>
       <c r="K43" s="77"/>
       <c r="L43" s="133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AV43" s="77"/>
     </row>
@@ -12330,7 +12349,7 @@
       <c r="G45" s="76"/>
       <c r="K45" s="77"/>
       <c r="L45" s="133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AV45" s="77"/>
     </row>
@@ -12341,7 +12360,7 @@
       <c r="G46" s="76"/>
       <c r="K46" s="77"/>
       <c r="L46" s="132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AV46" s="77"/>
     </row>
@@ -12361,7 +12380,7 @@
       <c r="G48" s="76"/>
       <c r="K48" s="77"/>
       <c r="L48" s="132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AV48" s="77"/>
     </row>
@@ -12419,20 +12438,20 @@
         <v>5</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="23"/>
       <c r="G50" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="23"/>
       <c r="L50" s="131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -12480,7 +12499,7 @@
       </c>
       <c r="K51" s="77"/>
       <c r="L51" s="133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AV51" s="77"/>
     </row>
@@ -12500,7 +12519,7 @@
       <c r="G53" s="76"/>
       <c r="K53" s="77"/>
       <c r="L53" s="133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AV53" s="77"/>
     </row>
@@ -12511,7 +12530,7 @@
       <c r="G54" s="76"/>
       <c r="K54" s="77"/>
       <c r="L54" s="132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AV54" s="77"/>
     </row>
@@ -12531,7 +12550,7 @@
       <c r="G56" s="76"/>
       <c r="K56" s="77"/>
       <c r="L56" s="132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AV56" s="77"/>
     </row>
@@ -12602,7 +12621,7 @@
       <c r="J58" s="22"/>
       <c r="K58" s="23"/>
       <c r="L58" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
@@ -12759,7 +12778,7 @@
       <c r="J61" s="22"/>
       <c r="K61" s="23"/>
       <c r="L61" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
@@ -20487,7 +20506,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="201">
+      <c r="B7" s="207">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -20541,7 +20560,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="202"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -20591,7 +20610,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="201">
+      <c r="B9" s="207">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -20649,7 +20668,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="202"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20699,11 +20718,11 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="201">
+      <c r="B11" s="207">
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -20761,7 +20780,7 @@
       <c r="AW11" s="23"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="202"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="76"/>
       <c r="I12" s="77"/>
       <c r="J12" s="76"/>
@@ -20806,7 +20825,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="201">
+      <c r="B13" s="207">
         <v>4</v>
       </c>
       <c r="C13" s="76"/>
@@ -20830,18 +20849,18 @@
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="203" t="s">
+      <c r="T13" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="U13" s="204"/>
-      <c r="V13" s="204"/>
-      <c r="W13" s="204"/>
-      <c r="X13" s="204"/>
-      <c r="Y13" s="204"/>
-      <c r="Z13" s="204"/>
-      <c r="AA13" s="204"/>
-      <c r="AB13" s="204"/>
-      <c r="AC13" s="205"/>
+      <c r="U13" s="202"/>
+      <c r="V13" s="202"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="203"/>
       <c r="AD13" s="121" t="s">
         <v>164</v>
       </c>
@@ -20866,7 +20885,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="202"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="76"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -20884,16 +20903,16 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
       <c r="S14" s="27"/>
-      <c r="T14" s="206"/>
-      <c r="U14" s="207"/>
-      <c r="V14" s="207"/>
-      <c r="W14" s="207"/>
-      <c r="X14" s="207"/>
-      <c r="Y14" s="207"/>
-      <c r="Z14" s="207"/>
-      <c r="AA14" s="207"/>
-      <c r="AB14" s="207"/>
-      <c r="AC14" s="208"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="205"/>
+      <c r="V14" s="205"/>
+      <c r="W14" s="205"/>
+      <c r="X14" s="205"/>
+      <c r="Y14" s="205"/>
+      <c r="Z14" s="205"/>
+      <c r="AA14" s="205"/>
+      <c r="AB14" s="205"/>
+      <c r="AC14" s="206"/>
       <c r="AD14" s="123"/>
       <c r="AE14" s="124"/>
       <c r="AF14" s="124"/>
@@ -20916,7 +20935,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="201">
+      <c r="B15" s="207">
         <v>5</v>
       </c>
       <c r="C15" s="76"/>
@@ -20967,7 +20986,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="202"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="76"/>
       <c r="I16" s="77"/>
       <c r="J16" s="25"/>
@@ -21012,7 +21031,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="201">
+      <c r="B17" s="207">
         <v>6</v>
       </c>
       <c r="C17" s="76"/>
@@ -21036,18 +21055,18 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="203" t="s">
-        <v>203</v>
-      </c>
-      <c r="U17" s="204"/>
-      <c r="V17" s="204"/>
-      <c r="W17" s="204"/>
-      <c r="X17" s="204"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="204"/>
-      <c r="AA17" s="204"/>
-      <c r="AB17" s="204"/>
-      <c r="AC17" s="205"/>
+      <c r="T17" s="201" t="s">
+        <v>202</v>
+      </c>
+      <c r="U17" s="202"/>
+      <c r="V17" s="202"/>
+      <c r="W17" s="202"/>
+      <c r="X17" s="202"/>
+      <c r="Y17" s="202"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="202"/>
+      <c r="AB17" s="202"/>
+      <c r="AC17" s="203"/>
       <c r="AD17" s="121" t="s">
         <v>167</v>
       </c>
@@ -21072,7 +21091,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="202"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -21090,16 +21109,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="207"/>
-      <c r="V18" s="207"/>
-      <c r="W18" s="207"/>
-      <c r="X18" s="207"/>
-      <c r="Y18" s="207"/>
-      <c r="Z18" s="207"/>
-      <c r="AA18" s="207"/>
-      <c r="AB18" s="207"/>
-      <c r="AC18" s="208"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="205"/>
+      <c r="AA18" s="205"/>
+      <c r="AB18" s="205"/>
+      <c r="AC18" s="206"/>
       <c r="AD18" s="123"/>
       <c r="AE18" s="124"/>
       <c r="AF18" s="124"/>
@@ -21122,11 +21141,11 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="201">
+      <c r="B19" s="207">
         <v>7</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -21149,7 +21168,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="23"/>
       <c r="T19" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
@@ -21184,7 +21203,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="202"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="76"/>
       <c r="I20" s="77"/>
       <c r="J20" s="25"/>
@@ -21229,7 +21248,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="201">
+      <c r="B21" s="207">
         <v>8</v>
       </c>
       <c r="C21" s="76"/>
@@ -21284,7 +21303,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="202"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="76"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -21334,7 +21353,7 @@
       <c r="AW22" s="27"/>
     </row>
     <row r="23" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="201">
+      <c r="B23" s="207">
         <v>9</v>
       </c>
       <c r="C23" s="76"/>
@@ -21385,7 +21404,7 @@
       <c r="AW23" s="23"/>
     </row>
     <row r="24" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="202"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="76"/>
       <c r="I24" s="77"/>
       <c r="J24" s="25"/>
@@ -21430,7 +21449,7 @@
       <c r="AW24" s="27"/>
     </row>
     <row r="25" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="201">
+      <c r="B25" s="207">
         <v>10</v>
       </c>
       <c r="C25" s="76"/>
@@ -21449,18 +21468,18 @@
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="U25" s="204"/>
-      <c r="V25" s="204"/>
-      <c r="W25" s="204"/>
-      <c r="X25" s="204"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="204"/>
-      <c r="AC25" s="205"/>
+      <c r="T25" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="U25" s="202"/>
+      <c r="V25" s="202"/>
+      <c r="W25" s="202"/>
+      <c r="X25" s="202"/>
+      <c r="Y25" s="202"/>
+      <c r="Z25" s="202"/>
+      <c r="AA25" s="202"/>
+      <c r="AB25" s="202"/>
+      <c r="AC25" s="203"/>
       <c r="AD25" s="121" t="s">
         <v>169</v>
       </c>
@@ -21485,7 +21504,7 @@
       <c r="AW25" s="23"/>
     </row>
     <row r="26" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="202"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="76"/>
       <c r="I26" s="77"/>
       <c r="J26" s="76"/>
@@ -21498,16 +21517,16 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
-      <c r="T26" s="206"/>
-      <c r="U26" s="207"/>
-      <c r="V26" s="207"/>
-      <c r="W26" s="207"/>
-      <c r="X26" s="207"/>
-      <c r="Y26" s="207"/>
-      <c r="Z26" s="207"/>
-      <c r="AA26" s="207"/>
-      <c r="AB26" s="207"/>
-      <c r="AC26" s="208"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="205"/>
+      <c r="AA26" s="205"/>
+      <c r="AB26" s="205"/>
+      <c r="AC26" s="206"/>
       <c r="AD26" s="123"/>
       <c r="AE26" s="124"/>
       <c r="AF26" s="124"/>
@@ -21530,11 +21549,11 @@
       <c r="AW26" s="27"/>
     </row>
     <row r="27" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="201">
+      <c r="B27" s="207">
         <v>11</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -21556,18 +21575,18 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="203" t="s">
+      <c r="T27" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="U27" s="204"/>
-      <c r="V27" s="204"/>
-      <c r="W27" s="204"/>
-      <c r="X27" s="204"/>
-      <c r="Y27" s="204"/>
-      <c r="Z27" s="204"/>
-      <c r="AA27" s="204"/>
-      <c r="AB27" s="204"/>
-      <c r="AC27" s="205"/>
+      <c r="U27" s="202"/>
+      <c r="V27" s="202"/>
+      <c r="W27" s="202"/>
+      <c r="X27" s="202"/>
+      <c r="Y27" s="202"/>
+      <c r="Z27" s="202"/>
+      <c r="AA27" s="202"/>
+      <c r="AB27" s="202"/>
+      <c r="AC27" s="203"/>
       <c r="AD27" s="121" t="s">
         <v>170</v>
       </c>
@@ -21592,7 +21611,7 @@
       <c r="AW27" s="23"/>
     </row>
     <row r="28" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="202"/>
+      <c r="B28" s="208"/>
       <c r="C28" s="76"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -21610,16 +21629,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="206"/>
-      <c r="U28" s="207"/>
-      <c r="V28" s="207"/>
-      <c r="W28" s="207"/>
-      <c r="X28" s="207"/>
-      <c r="Y28" s="207"/>
-      <c r="Z28" s="207"/>
-      <c r="AA28" s="207"/>
-      <c r="AB28" s="207"/>
-      <c r="AC28" s="208"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="205"/>
+      <c r="W28" s="205"/>
+      <c r="X28" s="205"/>
+      <c r="Y28" s="205"/>
+      <c r="Z28" s="205"/>
+      <c r="AA28" s="205"/>
+      <c r="AB28" s="205"/>
+      <c r="AC28" s="206"/>
       <c r="AD28" s="123"/>
       <c r="AE28" s="124"/>
       <c r="AF28" s="124"/>
@@ -21642,7 +21661,7 @@
       <c r="AW28" s="27"/>
     </row>
     <row r="29" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="201">
+      <c r="B29" s="207">
         <v>12</v>
       </c>
       <c r="C29" s="76"/>
@@ -21693,7 +21712,7 @@
       <c r="AW29" s="23"/>
     </row>
     <row r="30" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="202"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="76"/>
       <c r="I30" s="77"/>
       <c r="J30" s="25"/>
@@ -21738,7 +21757,7 @@
       <c r="AW30" s="27"/>
     </row>
     <row r="31" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="201">
+      <c r="B31" s="207">
         <v>13</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -21796,7 +21815,7 @@
       <c r="AW31" s="23"/>
     </row>
     <row r="32" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="202"/>
+      <c r="B32" s="208"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -21846,7 +21865,7 @@
       <c r="AW32" s="27"/>
     </row>
     <row r="33" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="201">
+      <c r="B33" s="207">
         <v>14</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -21870,18 +21889,18 @@
       </c>
       <c r="R33" s="22"/>
       <c r="S33" s="23"/>
-      <c r="T33" s="203" t="s">
-        <v>204</v>
-      </c>
-      <c r="U33" s="204"/>
-      <c r="V33" s="204"/>
-      <c r="W33" s="204"/>
-      <c r="X33" s="204"/>
-      <c r="Y33" s="204"/>
-      <c r="Z33" s="204"/>
-      <c r="AA33" s="204"/>
-      <c r="AB33" s="204"/>
-      <c r="AC33" s="205"/>
+      <c r="T33" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="U33" s="202"/>
+      <c r="V33" s="202"/>
+      <c r="W33" s="202"/>
+      <c r="X33" s="202"/>
+      <c r="Y33" s="202"/>
+      <c r="Z33" s="202"/>
+      <c r="AA33" s="202"/>
+      <c r="AB33" s="202"/>
+      <c r="AC33" s="203"/>
       <c r="AD33" s="21" t="s">
         <v>173</v>
       </c>
@@ -21906,7 +21925,7 @@
       <c r="AW33" s="23"/>
     </row>
     <row r="34" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="202"/>
+      <c r="B34" s="208"/>
       <c r="C34" s="76"/>
       <c r="I34" s="77"/>
       <c r="J34" s="76"/>
@@ -21914,16 +21933,16 @@
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
       <c r="S34" s="27"/>
-      <c r="T34" s="206"/>
-      <c r="U34" s="207"/>
-      <c r="V34" s="207"/>
-      <c r="W34" s="207"/>
-      <c r="X34" s="207"/>
-      <c r="Y34" s="207"/>
-      <c r="Z34" s="207"/>
-      <c r="AA34" s="207"/>
-      <c r="AB34" s="207"/>
-      <c r="AC34" s="208"/>
+      <c r="T34" s="204"/>
+      <c r="U34" s="205"/>
+      <c r="V34" s="205"/>
+      <c r="W34" s="205"/>
+      <c r="X34" s="205"/>
+      <c r="Y34" s="205"/>
+      <c r="Z34" s="205"/>
+      <c r="AA34" s="205"/>
+      <c r="AB34" s="205"/>
+      <c r="AC34" s="206"/>
       <c r="AD34" s="25"/>
       <c r="AE34" s="26"/>
       <c r="AF34" s="26"/>
@@ -21946,7 +21965,7 @@
       <c r="AW34" s="27"/>
     </row>
     <row r="35" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="201">
+      <c r="B35" s="207">
         <v>15</v>
       </c>
       <c r="C35" s="76"/>
@@ -21992,7 +22011,7 @@
       <c r="AW35" s="23"/>
     </row>
     <row r="36" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="202"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -26039,11 +26058,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="T13:AC14"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="T33:AC34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="T17:AC18"/>
     <mergeCell ref="T25:AC26"/>
     <mergeCell ref="T27:AC28"/>
@@ -26059,11 +26078,11 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="T33:AC34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="T13:AC14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -26508,15 +26527,15 @@
     </row>
     <row r="8" spans="1:52" s="119" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:52" s="119" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D9" s="119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
@@ -37343,15 +37362,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -37509,6 +37519,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -37519,14 +37538,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37542,4 +37553,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>